--- a/danhsachsinhviendudieukien.xlsx
+++ b/danhsachsinhviendudieukien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAnTotNgiep\DoAnTotNghiep-main - Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quanlydoantotnghiep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CFE1A-8260-4E76-8FD3-E643535F4A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49D7392-8B84-4CEE-B5F6-26F3EF289506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{456829EB-41C4-47A7-8229-230954C77B38}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{456829EB-41C4-47A7-8229-230954C77B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>jw2008lm@gmail.com</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>lớp</t>
+  </si>
+  <si>
+    <t>CNPMK63A</t>
   </si>
 </sst>
 </file>
@@ -149,10 +155,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BFA1F3-F7B8-4EC1-8BBE-835148E7AA72}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +494,7 @@
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -524,8 +531,11 @@
       <c r="L1" t="s">
         <v>12</v>
       </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1821051121</v>
       </c>
@@ -562,8 +572,11 @@
       <c r="L2" t="s">
         <v>21</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1821051007</v>
       </c>
@@ -599,6 +612,9 @@
       </c>
       <c r="L3" t="s">
         <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -607,5 +623,6 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{CD5BC02F-472C-4CEA-A5AE-A272E742E35D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/danhsachsinhviendudieukien.xlsx
+++ b/danhsachsinhviendudieukien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quanlydoantotnghiep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49D7392-8B84-4CEE-B5F6-26F3EF289506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F2B62-4DE2-4C0D-81F0-7B449362BB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{456829EB-41C4-47A7-8229-230954C77B38}"/>
+    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{456829EB-41C4-47A7-8229-230954C77B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,11 +155,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BFA1F3-F7B8-4EC1-8BBE-835148E7AA72}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +571,7 @@
       <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -613,7 +612,7 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/danhsachsinhviendudieukien.xlsx
+++ b/danhsachsinhviendudieukien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quanlydoantotnghiep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F2B62-4DE2-4C0D-81F0-7B449362BB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF85032-34AB-4A4F-A5F9-84400C6ABCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{456829EB-41C4-47A7-8229-230954C77B38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{456829EB-41C4-47A7-8229-230954C77B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>jw2008lm@gmail.com</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>lớp</t>
-  </si>
-  <si>
-    <t>CNPMK63A</t>
   </si>
 </sst>
 </file>
@@ -477,7 +474,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,8 +568,8 @@
       <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
-        <v>25</v>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -612,8 +609,8 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
-        <v>25</v>
+      <c r="M3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/danhsachsinhviendudieukien.xlsx
+++ b/danhsachsinhviendudieukien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quanlydoantotnghiep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF85032-34AB-4A4F-A5F9-84400C6ABCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3A6606-0398-47E2-AE67-D74907FA95E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{456829EB-41C4-47A7-8229-230954C77B38}"/>
+    <workbookView xWindow="-20610" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{456829EB-41C4-47A7-8229-230954C77B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
-  <si>
-    <t>jw2008lm@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="103">
   <si>
     <t>phamtrungkienk63b@gmail.com</t>
   </si>
   <si>
-    <t>Idsinhvien</t>
-  </si>
-  <si>
     <t>Tên sinh viên</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>2018-2022</t>
   </si>
   <si>
-    <t>Tin học văn phòng</t>
-  </si>
-  <si>
     <t>Tiếng anh cơ bản</t>
   </si>
   <si>
@@ -108,13 +99,256 @@
   </si>
   <si>
     <t>lớp</t>
+  </si>
+  <si>
+    <t>Mã sinh viên</t>
+  </si>
+  <si>
+    <t>Nguyễn Chí Dũng</t>
+  </si>
+  <si>
+    <t>Bùi Công Thắng</t>
+  </si>
+  <si>
+    <t>Lê Văn Long</t>
+  </si>
+  <si>
+    <t>Trịnh Mai Nga</t>
+  </si>
+  <si>
+    <t>Trần Văn Hiếu</t>
+  </si>
+  <si>
+    <t>Bùi Ngọc Quân</t>
+  </si>
+  <si>
+    <t>Phạm Xuân Huy</t>
+  </si>
+  <si>
+    <t>Lê Long Khánh</t>
+  </si>
+  <si>
+    <t>Bùi Thu Thảo</t>
+  </si>
+  <si>
+    <t>Đặng Ngọc Linh</t>
+  </si>
+  <si>
+    <t>Trần Thị Hương</t>
+  </si>
+  <si>
+    <t>Vũ Tiến Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dương</t>
+  </si>
+  <si>
+    <t>Trương Ngọc Nghĩa</t>
+  </si>
+  <si>
+    <t>Trần Văn Đạt</t>
+  </si>
+  <si>
+    <t>Bùi Văn Sơn</t>
+  </si>
+  <si>
+    <t>Trần Văn chiến</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hùng</t>
+  </si>
+  <si>
+    <t>Lê Tố Uyên</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Khánh</t>
+  </si>
+  <si>
+    <t>Lê Tú Trinh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hậu</t>
+  </si>
+  <si>
+    <t>Nguyễn An Sơn</t>
+  </si>
+  <si>
+    <t>Trần Đinh Tài</t>
+  </si>
+  <si>
+    <t>Lê Thị Hải Tú</t>
+  </si>
+  <si>
+    <t>Vũ Lương Bằng</t>
+  </si>
+  <si>
+    <t>Vũ Thiên Sơn</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>KHMTK63A</t>
+  </si>
+  <si>
+    <t>KHMTK63B</t>
+  </si>
+  <si>
+    <t>KHMTK63C</t>
+  </si>
+  <si>
+    <t>baongoc@gmail.com</t>
+  </si>
+  <si>
+    <t>chidung@gmail.com</t>
+  </si>
+  <si>
+    <t>congthang@gmail.com</t>
+  </si>
+  <si>
+    <t>levanlong@gmail.com</t>
+  </si>
+  <si>
+    <t>trinhmainga@gmial.com</t>
+  </si>
+  <si>
+    <t>tranvanhieu@gmail.com</t>
+  </si>
+  <si>
+    <t>buingocquan@gmail.com</t>
+  </si>
+  <si>
+    <t>phamxuanhuy@gmail.com</t>
+  </si>
+  <si>
+    <t>lelongkhanh@gmail.com</t>
+  </si>
+  <si>
+    <t>buithuthao@gmail.com</t>
+  </si>
+  <si>
+    <t>dangngoclinh@gmail.com</t>
+  </si>
+  <si>
+    <t>thihuong@gmial.com</t>
+  </si>
+  <si>
+    <t>vutienhung@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyenvanduong@gmail.com</t>
+  </si>
+  <si>
+    <t>Ngocnghia@gmail.com</t>
+  </si>
+  <si>
+    <t>Tranvandat@gmail.com</t>
+  </si>
+  <si>
+    <t>vbuivanson@gmail.com</t>
+  </si>
+  <si>
+    <t>tranvanchien@gmail.com</t>
+  </si>
+  <si>
+    <t>letouyen@gmail.com</t>
+  </si>
+  <si>
+    <t>trinhthikhanh@gmail.com</t>
+  </si>
+  <si>
+    <t>letutrinh@gmail.com</t>
+  </si>
+  <si>
+    <t>nguyenthihau@gmail.com</t>
+  </si>
+  <si>
+    <t>nguyenanson@gmail.com</t>
+  </si>
+  <si>
+    <t>trandinhtai@gmail.com</t>
+  </si>
+  <si>
+    <t>lethihaitu@gmail.com</t>
+  </si>
+  <si>
+    <t>vuluongbang@gmail.com</t>
+  </si>
+  <si>
+    <t>vuthienson@gmail.com</t>
+  </si>
+  <si>
+    <t>14/02/200</t>
+  </si>
+  <si>
+    <t>27/06/2000</t>
+  </si>
+  <si>
+    <t>13/08/2000</t>
+  </si>
+  <si>
+    <t>19/08/2000</t>
+  </si>
+  <si>
+    <t>14/05/2000</t>
+  </si>
+  <si>
+    <t>16/03/2000</t>
+  </si>
+  <si>
+    <t>15/07/2000</t>
+  </si>
+  <si>
+    <t>14/02/2000</t>
+  </si>
+  <si>
+    <t>22/03/2000</t>
+  </si>
+  <si>
+    <t>29/05/2000</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Yên Bái</t>
+  </si>
+  <si>
+    <t>Lào Cai</t>
+  </si>
+  <si>
+    <t>Sơn La</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t>Lạng Sơn</t>
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>Lập Trình Front-end Reactjs</t>
+  </si>
+  <si>
+    <t>Tin học văn phòng, Lập trình Back-end Nodejs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +360,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,10 +394,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,64 +714,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BFA1F3-F7B8-4EC1-8BBE-835148E7AA72}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -539,86 +784,1202 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="2">
         <v>36748</v>
       </c>
       <c r="F2">
-        <v>1821051121</v>
+        <v>3458544</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>3.2</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1821051007</v>
+        <v>1821051002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>36537</v>
       </c>
       <c r="F3">
-        <v>1821051121</v>
+        <v>3458545</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>3.2</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1821051003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>36533</v>
+      </c>
+      <c r="F4">
+        <v>3458546</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>2.5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1821051004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5">
+        <v>3458547</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1821051005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6">
+        <v>3458548</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1821051006</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7">
+        <v>3458549</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>3.1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1821051007</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>3458550</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1821051008</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9">
+        <v>3458551</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1821051009</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10">
+        <v>3458552</v>
+      </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>2.5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1821051010</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11">
+        <v>3458553</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1821051011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <v>3458554</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>3.2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1821051012</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13">
+        <v>3458555</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>3.5</v>
+      </c>
+      <c r="L13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1821051013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>3458556</v>
+      </c>
+      <c r="G14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1821051014</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>3458557</v>
+      </c>
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1821051015</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16">
+        <v>3458558</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1821051016</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <v>3458559</v>
+      </c>
+      <c r="G17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1821051017</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18">
+        <v>3458560</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1821051018</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2">
+        <v>36748</v>
+      </c>
+      <c r="F19">
+        <v>3458561</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1821051019</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2">
+        <v>36537</v>
+      </c>
+      <c r="F20">
+        <v>3458562</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1821051020</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2">
+        <v>36533</v>
+      </c>
+      <c r="F21">
+        <v>3458563</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1821051021</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22">
+        <v>3458564</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>2.5</v>
+      </c>
+      <c r="L22" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1821051022</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23">
+        <v>3458565</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>2.5</v>
+      </c>
+      <c r="L23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1821051023</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24">
+        <v>3458566</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>2.5</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1821051024</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25">
+        <v>3458567</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>2.5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1821051025</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>3458568</v>
+      </c>
+      <c r="G26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>2.5</v>
+      </c>
+      <c r="L26" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1821051026</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27">
+        <v>3458569</v>
+      </c>
+      <c r="G27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>3.5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1821051027</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28">
+        <v>3458570</v>
+      </c>
+      <c r="G28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>2.5</v>
+      </c>
+      <c r="L28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1821051028</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29">
+        <v>3458571</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>2.5</v>
+      </c>
+      <c r="L29" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1821051029</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30">
+        <v>3458572</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C5F270A1-87BF-4243-8547-126912617040}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{CD5BC02F-472C-4CEA-A5AE-A272E742E35D}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7720730D-382C-4058-846B-D6AD398CE452}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0E704C8A-629F-46A7-A0EC-A57697421FD3}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{D31A29F3-4951-4B3D-98C9-C9B6D470D904}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{BF5FB7A4-A440-462D-A87F-B38F35CF5465}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{07192B37-F1F6-4DD7-866B-12BC6E3217CA}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{52F015CC-FB3B-40AA-B5B0-105E94BD0A70}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{1CA8EA50-C58B-40AE-B8E2-F6D58B2D0314}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{DEC856CF-A8E0-41FD-B29D-EE06BF32B548}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{FC09425E-5CDB-425F-9491-9F43C26ADF3D}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{2483E5BE-109F-4596-A78A-1F4A5E26E00C}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{5F1D5577-A2F3-4830-9763-BBFE37FC854B}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{C698098C-50BD-4381-944E-603253538ADE}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{0A6B688E-295B-4888-B686-91C3488BB006}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{80AAEF5F-1624-4603-B547-5E4B5C4A4AAC}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{55CB8B02-8B7A-4C6A-B8BD-4FF7AD12AC57}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{701E2718-7A57-4720-8A0E-B4BD7AD1F6EE}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{DCB7AB3A-FBE7-4880-81B4-58B71C035133}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{CDC300E0-8425-4A4D-8D48-4FA4FC92CD8E}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{65C1125E-F80E-4666-BC76-BB70A433603C}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{23EC4083-6C1A-445E-A25F-6D6CCF357B99}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{A939DBE9-AA41-4190-9AE6-6C86ECC5BA6C}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{44E23A9B-31C6-46AB-BCE7-5886DCA1B6D7}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{F045F7B6-AB5E-4AEA-83A5-28D967727254}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{CFFB321B-A25F-4041-97B4-B47969417761}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{1408E8A1-2BE4-4D2C-AEA9-B39C1F6C85FD}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{1613CF8F-39FA-46AC-B734-4FAB39C1CBF4}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{35F33164-2CC4-40CB-B754-2245F9CC31C2}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{6B4DA326-5BE8-435C-913D-2A4E41796F59}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{1897E61E-D6DA-4D6E-BE52-DB4ED4DC1604}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/danhsachsinhviendudieukien.xlsx
+++ b/danhsachsinhviendudieukien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quanlydoantotnghiep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3A6606-0398-47E2-AE67-D74907FA95E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9730C252-6560-4A44-85ED-285E9DB0BD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{456829EB-41C4-47A7-8229-230954C77B38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{456829EB-41C4-47A7-8229-230954C77B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="94">
   <si>
     <t>phamtrungkienk63b@gmail.com</t>
   </si>
@@ -188,15 +188,9 @@
     <t>Nữ</t>
   </si>
   <si>
-    <t>KHMTK63A</t>
-  </si>
-  <si>
     <t>KHMTK63B</t>
   </si>
   <si>
-    <t>KHMTK63C</t>
-  </si>
-  <si>
     <t>baongoc@gmail.com</t>
   </si>
   <si>
@@ -278,36 +272,6 @@
     <t>vuthienson@gmail.com</t>
   </si>
   <si>
-    <t>14/02/200</t>
-  </si>
-  <si>
-    <t>27/06/2000</t>
-  </si>
-  <si>
-    <t>13/08/2000</t>
-  </si>
-  <si>
-    <t>19/08/2000</t>
-  </si>
-  <si>
-    <t>14/05/2000</t>
-  </si>
-  <si>
-    <t>16/03/2000</t>
-  </si>
-  <si>
-    <t>15/07/2000</t>
-  </si>
-  <si>
-    <t>14/02/2000</t>
-  </si>
-  <si>
-    <t>22/03/2000</t>
-  </si>
-  <si>
-    <t>29/05/2000</t>
-  </si>
-  <si>
     <t>Hà Nội</t>
   </si>
   <si>
@@ -342,6 +306,15 @@
   </si>
   <si>
     <t>Tin học văn phòng, Lập trình Back-end Nodejs</t>
+  </si>
+  <si>
+    <t>12/02/200</t>
+  </si>
+  <si>
+    <t>KHMTk63A</t>
+  </si>
+  <si>
+    <t>KHMTk63C</t>
   </si>
 </sst>
 </file>
@@ -716,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BFA1F3-F7B8-4EC1-8BBE-835148E7AA72}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,10 +784,10 @@
         <v>3.2</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -822,7 +795,7 @@
         <v>1821051002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -855,7 +828,7 @@
         <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -863,7 +836,7 @@
         <v>1821051003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -878,7 +851,7 @@
         <v>3458546</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -893,10 +866,10 @@
         <v>2.5</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -904,7 +877,7 @@
         <v>1821051004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -912,14 +885,14 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>88</v>
+      <c r="E5" s="2">
+        <v>36527</v>
       </c>
       <c r="F5">
         <v>3458547</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -934,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -945,7 +918,7 @@
         <v>1821051005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -953,14 +926,14 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>82</v>
+      <c r="E6" s="2">
+        <v>36866</v>
       </c>
       <c r="F6">
         <v>3458548</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -978,7 +951,7 @@
         <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -986,7 +959,7 @@
         <v>1821051006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -994,14 +967,14 @@
       <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
-        <v>83</v>
+      <c r="E7" s="2">
+        <v>36868</v>
       </c>
       <c r="F7">
         <v>3458549</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
@@ -1016,10 +989,10 @@
         <v>3.1</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1027,7 +1000,7 @@
         <v>1821051007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1035,14 +1008,14 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>87</v>
+      <c r="E8" s="2">
+        <v>36714</v>
       </c>
       <c r="F8">
         <v>3458550</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -1057,10 +1030,10 @@
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1068,7 +1041,7 @@
         <v>1821051008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1076,14 +1049,14 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>84</v>
+      <c r="E9" s="2">
+        <v>36746</v>
       </c>
       <c r="F9">
         <v>3458551</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -1101,7 +1074,7 @@
         <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1109,7 +1082,7 @@
         <v>1821051009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1117,14 +1090,14 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>85</v>
+      <c r="E10" s="2">
+        <v>36530</v>
       </c>
       <c r="F10">
         <v>3458552</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -1139,10 +1112,10 @@
         <v>2.5</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1150,7 +1123,7 @@
         <v>1821051010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1158,14 +1131,14 @@
       <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
-        <v>86</v>
+      <c r="E11" s="2">
+        <v>36833</v>
       </c>
       <c r="F11">
         <v>3458553</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -1180,10 +1153,10 @@
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1191,7 +1164,7 @@
         <v>1821051011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1199,14 +1172,14 @@
       <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
-        <v>89</v>
+      <c r="E12" s="2">
+        <v>36863</v>
       </c>
       <c r="F12">
         <v>3458554</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -1224,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1232,7 +1205,7 @@
         <v>1821051012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -1240,14 +1213,14 @@
       <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
-        <v>90</v>
+      <c r="E13" s="2">
+        <v>36774</v>
       </c>
       <c r="F13">
         <v>3458555</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
@@ -1262,10 +1235,10 @@
         <v>3.5</v>
       </c>
       <c r="L13" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1273,7 +1246,7 @@
         <v>1821051013</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -1281,14 +1254,14 @@
       <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
-        <v>85</v>
+      <c r="E14" s="2">
+        <v>36621</v>
       </c>
       <c r="F14">
         <v>3458556</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -1303,10 +1276,10 @@
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1314,7 +1287,7 @@
         <v>1821051014</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -1322,14 +1295,14 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>86</v>
+      <c r="E15" s="2">
+        <v>36680</v>
       </c>
       <c r="F15">
         <v>3458557</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
@@ -1347,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1355,7 +1328,7 @@
         <v>1821051015</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -1363,14 +1336,14 @@
       <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
-        <v>89</v>
+      <c r="E16" s="2">
+        <v>36680</v>
       </c>
       <c r="F16">
         <v>3458558</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -1385,10 +1358,10 @@
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1396,7 +1369,7 @@
         <v>1821051016</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -1404,14 +1377,14 @@
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
-        <v>90</v>
+      <c r="E17" s="2">
+        <v>36774</v>
       </c>
       <c r="F17">
         <v>3458559</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
@@ -1426,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M17" t="s">
         <v>51</v>
@@ -1437,7 +1410,7 @@
         <v>1821051017</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -1445,14 +1418,14 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>83</v>
+      <c r="E18" s="2">
+        <v>36868</v>
       </c>
       <c r="F18">
         <v>3458560</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -1470,7 +1443,7 @@
         <v>19</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1478,7 +1451,7 @@
         <v>1821051018</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -1493,7 +1466,7 @@
         <v>3458561</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
@@ -1508,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1519,7 +1492,7 @@
         <v>1821051019</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -1534,7 +1507,7 @@
         <v>3458562</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -1549,10 +1522,10 @@
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1560,7 +1533,7 @@
         <v>1821051020</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
@@ -1575,7 +1548,7 @@
         <v>3458563</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -1593,7 +1566,7 @@
         <v>19</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1601,7 +1574,7 @@
         <v>1821051021</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -1610,13 +1583,13 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F22">
         <v>3458564</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
@@ -1631,10 +1604,10 @@
         <v>2.5</v>
       </c>
       <c r="L22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1642,7 +1615,7 @@
         <v>1821051022</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -1650,14 +1623,14 @@
       <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="E23" t="s">
-        <v>82</v>
+      <c r="E23" s="2">
+        <v>36622</v>
       </c>
       <c r="F23">
         <v>3458565</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
@@ -1672,10 +1645,10 @@
         <v>2.5</v>
       </c>
       <c r="L23" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1683,7 +1656,7 @@
         <v>1821051023</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
@@ -1691,14 +1664,14 @@
       <c r="D24" t="s">
         <v>50</v>
       </c>
-      <c r="E24" t="s">
-        <v>83</v>
+      <c r="E24" s="2">
+        <v>36715</v>
       </c>
       <c r="F24">
         <v>3458566</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
@@ -1716,7 +1689,7 @@
         <v>19</v>
       </c>
       <c r="M24" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1724,7 +1697,7 @@
         <v>1821051024</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -1732,14 +1705,14 @@
       <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" t="s">
-        <v>84</v>
+      <c r="E25" s="2">
+        <v>36807</v>
       </c>
       <c r="F25">
         <v>3458567</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
@@ -1754,10 +1727,10 @@
         <v>2.5</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1765,7 +1738,7 @@
         <v>1821051025</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -1773,14 +1746,14 @@
       <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" t="s">
-        <v>85</v>
+      <c r="E26" s="2">
+        <v>36804</v>
       </c>
       <c r="F26">
         <v>3458568</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -1795,10 +1768,10 @@
         <v>2.5</v>
       </c>
       <c r="L26" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1806,7 +1779,7 @@
         <v>1821051026</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
@@ -1814,14 +1787,14 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" t="s">
-        <v>86</v>
+      <c r="E27" s="2">
+        <v>36680</v>
       </c>
       <c r="F27">
         <v>3458569</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
@@ -1839,7 +1812,7 @@
         <v>19</v>
       </c>
       <c r="M27" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1847,7 +1820,7 @@
         <v>1821051027</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
@@ -1855,14 +1828,14 @@
       <c r="D28" t="s">
         <v>50</v>
       </c>
-      <c r="E28" t="s">
-        <v>89</v>
+      <c r="E28" s="2">
+        <v>36559</v>
       </c>
       <c r="F28">
         <v>3458570</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
@@ -1877,10 +1850,10 @@
         <v>2.5</v>
       </c>
       <c r="L28" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M28" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1888,7 +1861,7 @@
         <v>1821051028</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>48</v>
@@ -1896,14 +1869,14 @@
       <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" t="s">
-        <v>90</v>
+      <c r="E29" s="2">
+        <v>36561</v>
       </c>
       <c r="F29">
         <v>3458571</v>
       </c>
       <c r="G29" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
@@ -1918,10 +1891,10 @@
         <v>2.5</v>
       </c>
       <c r="L29" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1929,7 +1902,7 @@
         <v>1821051029</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>49</v>
@@ -1937,14 +1910,32 @@
       <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="E30" t="s">
-        <v>90</v>
+      <c r="E30" s="2">
+        <v>36651</v>
       </c>
       <c r="F30">
         <v>3458572</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>82</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>2.5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>90</v>
+      </c>
+      <c r="M30" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
